--- a/Data/Discount_Cheker/CV Discount Check Master File 10.01.2026.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 10.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C84B5-E4A1-4A7D-98B1-4D53E5636C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73406C-A0DC-414A-B19E-9C162FDC3535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -285,9 +285,6 @@
     <t>MAXX HD 2.0L SXi CBC AC - BS6.2</t>
   </si>
   <si>
-    <t>Vin's Above 90 Days are open for Discount - Auditor to take Tally Stock on 5th of Every month for &gt;90 Days Stock</t>
-  </si>
-  <si>
     <t>There is no discount on accessories package</t>
   </si>
   <si>
@@ -300,21 +297,12 @@
     <t>MODEL NOT SPECIFIED</t>
   </si>
   <si>
-    <t>Price will remain the same at both showrooms</t>
-  </si>
-  <si>
-    <t>For Camper Model Insurance in house is mandatory and in case of out house Insurance only M&amp;M Consumer offer will be applicable</t>
-  </si>
-  <si>
     <t>Only bulk deals of 10 or more vehicles will be considered outside the cartel</t>
   </si>
   <si>
     <t>As per price list insurance is mandatory</t>
   </si>
   <si>
-    <t>For vehicles where the accessories package is not free, an accessories package worth ₹12,000 will be mandatory.</t>
-  </si>
-  <si>
     <t>NO Additional Payout to be Passed on to DSA - Both PV &amp; CV</t>
   </si>
   <si>
@@ -454,6 +442,18 @@
   </si>
   <si>
     <t>5K + RSA FREE</t>
+  </si>
+  <si>
+    <t>Price will remain the same at both dealerships</t>
+  </si>
+  <si>
+    <t>In-house insurance is mandatory, even for vehicles that are 90 days old. (All Model)</t>
+  </si>
+  <si>
+    <t>Vin's Above 90 Days are open for Discount - Auditor to take Tally Stock on 5th of Every month for &gt;90 Days Stock (VIN 2025 Only)</t>
+  </si>
+  <si>
+    <t>An accessories package worth ₹12,000 will be mandatory. (VIN 2026 Only)</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1436,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,19 +1471,19 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,11 +1492,6 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="6" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1913,7 +1913,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="9"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2013,10 +2013,10 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="9"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2055,9 +2055,9 @@
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="72"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="19">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C7,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2081,9 +2081,9 @@
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="9"/>
-      <c r="B8" s="72"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="19">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C8,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2107,9 +2107,9 @@
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9" s="19">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C9,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -2133,9 +2133,9 @@
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="72"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="19">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C10,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2146,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="9"/>
-      <c r="B11" s="72"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" s="9"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2211,9 +2211,9 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="72"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C13,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2237,9 +2237,9 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="72"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="21">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C14,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="15" spans="1:15" ht="18.75">
       <c r="A15" s="9"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>102</v>
       </c>
       <c r="D15" s="62">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C15,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2291,9 +2291,9 @@
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="74"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="63" t="str">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C16,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2317,11 +2317,11 @@
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D17" s="60">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C17,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2341,9 +2341,9 @@
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" s="9"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="58">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C18,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2363,9 +2363,9 @@
     </row>
     <row r="19" spans="1:15" ht="18.75">
       <c r="A19" s="9"/>
-      <c r="B19" s="75"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" s="58">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C19,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2385,9 +2385,9 @@
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="75"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="64" t="str">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C20,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2407,11 +2407,11 @@
     </row>
     <row r="21" spans="1:15" ht="18.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="76" t="s">
-        <v>101</v>
+      <c r="B21" s="81" t="s">
+        <v>97</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="65">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C21,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2431,9 +2431,9 @@
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="77"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="66">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C22,Sheet1!$B$2:$Y$2,0),0),"")</f>
@@ -2677,7 +2677,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2700,36 +2700,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="87"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="89"/>
+      <c r="O1" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="90.75" thickBot="1">
       <c r="A2" s="26" t="s">
@@ -2745,16 +2745,16 @@
         <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>56</v>
@@ -2763,34 +2763,34 @@
         <v>57</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>112</v>
-      </c>
       <c r="R2" s="41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S2" s="49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T2" s="49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2836,7 +2836,7 @@
         <v>30000</v>
       </c>
       <c r="N3" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O3" s="42">
         <v>38000</v>
@@ -2848,7 +2848,7 @@
         <v>48000</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S3" s="50">
         <v>35000</v>
@@ -2900,7 +2900,7 @@
         <v>30000</v>
       </c>
       <c r="N4" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O4" s="44">
         <v>38000</v>
@@ -2912,7 +2912,7 @@
         <v>48000</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S4" s="51">
         <v>35000</v>
@@ -2964,7 +2964,7 @@
         <v>30000</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O5" s="44">
         <v>38000</v>
@@ -2976,7 +2976,7 @@
         <v>48000</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S5" s="51">
         <v>35000</v>
@@ -3028,7 +3028,7 @@
         <v>30000</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O6" s="44">
         <v>38000</v>
@@ -3040,7 +3040,7 @@
         <v>48000</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S6" s="51">
         <v>35000</v>
@@ -3092,7 +3092,7 @@
         <v>30000</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O7" s="44">
         <v>38000</v>
@@ -3104,7 +3104,7 @@
         <v>48000</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S7" s="51">
         <v>35000</v>
@@ -3156,7 +3156,7 @@
         <v>30000</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O8" s="44">
         <v>38000</v>
@@ -3168,7 +3168,7 @@
         <v>48000</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="S8" s="51">
         <v>35000</v>
@@ -3220,7 +3220,7 @@
         <v>65000</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O9" s="44">
         <v>65000</v>
@@ -3232,7 +3232,7 @@
         <v>75000</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S9" s="51">
         <v>35000</v>
@@ -3284,7 +3284,7 @@
         <v>10000</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="44">
         <v>23000</v>
@@ -3296,7 +3296,7 @@
         <v>28000</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" s="51">
         <v>35000</v>
@@ -3348,7 +3348,7 @@
         <v>10000</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" s="44">
         <v>28000</v>
@@ -3360,7 +3360,7 @@
         <v>33000</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S11" s="51">
         <v>35000</v>
@@ -3412,7 +3412,7 @@
         <v>20000</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O12" s="44">
         <v>26000</v>
@@ -3424,7 +3424,7 @@
         <v>31000</v>
       </c>
       <c r="R12" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S12" s="51">
         <v>35000</v>
@@ -3476,7 +3476,7 @@
         <v>20000</v>
       </c>
       <c r="N13" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O13" s="44">
         <v>26000</v>
@@ -3488,7 +3488,7 @@
         <v>31000</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S13" s="51">
         <v>35000</v>
@@ -3540,7 +3540,7 @@
         <v>10000</v>
       </c>
       <c r="N14" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O14" s="44">
         <v>35000</v>
@@ -3552,7 +3552,7 @@
         <v>40000</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S14" s="51">
         <v>35000</v>
@@ -3604,7 +3604,7 @@
         <v>20000</v>
       </c>
       <c r="N15" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O15" s="44">
         <v>29000</v>
@@ -3616,7 +3616,7 @@
         <v>34000</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S15" s="51">
         <v>35000</v>
@@ -3668,7 +3668,7 @@
         <v>10000</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O16" s="44">
         <v>35000</v>
@@ -3680,7 +3680,7 @@
         <v>40000</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S16" s="51">
         <v>35000</v>
@@ -3732,7 +3732,7 @@
         <v>25000</v>
       </c>
       <c r="N17" s="54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O17" s="44">
         <v>29000</v>
@@ -3744,7 +3744,7 @@
         <v>34000</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S17" s="51">
         <v>35000</v>
@@ -3796,7 +3796,7 @@
         <v>20000</v>
       </c>
       <c r="N18" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O18" s="44">
         <v>32000</v>
@@ -3808,7 +3808,7 @@
         <v>37000</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S18" s="51">
         <v>35000</v>
@@ -3860,7 +3860,7 @@
         <v>20000</v>
       </c>
       <c r="N19" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O19" s="44">
         <v>25000</v>
@@ -3872,7 +3872,7 @@
         <v>30000</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S19" s="51">
         <v>35000</v>
@@ -3924,7 +3924,7 @@
         <v>20000</v>
       </c>
       <c r="N20" s="54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O20" s="44">
         <v>32000</v>
@@ -3936,7 +3936,7 @@
         <v>37000</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S20" s="51">
         <v>35000</v>
@@ -3988,7 +3988,7 @@
         <v>65000</v>
       </c>
       <c r="N21" s="54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O21" s="44">
         <v>65000</v>
@@ -4000,7 +4000,7 @@
         <v>70000</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S21" s="51">
         <v>35000</v>
@@ -4052,7 +4052,7 @@
         <v>15000</v>
       </c>
       <c r="N22" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O22" s="44">
         <v>24500</v>
@@ -4064,7 +4064,7 @@
         <v>29500</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S22" s="51">
         <v>35000</v>
@@ -4116,7 +4116,7 @@
         <v>15000</v>
       </c>
       <c r="N23" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O23" s="44">
         <v>24500</v>
@@ -4128,7 +4128,7 @@
         <v>29500</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S23" s="51">
         <v>35000</v>
@@ -4180,7 +4180,7 @@
         <v>10000</v>
       </c>
       <c r="N24" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O24" s="44">
         <v>23000</v>
@@ -4192,7 +4192,7 @@
         <v>28000</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S24" s="51">
         <v>35000</v>
@@ -4244,7 +4244,7 @@
         <v>15000</v>
       </c>
       <c r="N25" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O25" s="44">
         <v>24500</v>
@@ -4256,7 +4256,7 @@
         <v>29500</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S25" s="51">
         <v>35000</v>
@@ -4308,7 +4308,7 @@
         <v>15000</v>
       </c>
       <c r="N26" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O26" s="44">
         <v>24500</v>
@@ -4320,7 +4320,7 @@
         <v>29500</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S26" s="51">
         <v>35000</v>
@@ -4372,7 +4372,7 @@
         <v>15000</v>
       </c>
       <c r="N27" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O27" s="44">
         <v>23000</v>
@@ -4384,7 +4384,7 @@
         <v>28000</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S27" s="51">
         <v>35000</v>
@@ -4436,7 +4436,7 @@
         <v>10000</v>
       </c>
       <c r="N28" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O28" s="44">
         <v>23000</v>
@@ -4448,7 +4448,7 @@
         <v>28000</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S28" s="51">
         <v>35000</v>
@@ -4500,7 +4500,7 @@
         <v>65000</v>
       </c>
       <c r="N29" s="54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O29" s="44">
         <v>65000</v>
@@ -4512,7 +4512,7 @@
         <v>70000</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S29" s="51">
         <v>35000</v>
@@ -4526,7 +4526,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7">
         <v>885500</v>
@@ -4564,7 +4564,7 @@
         <v>5000</v>
       </c>
       <c r="N30" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O30" s="44">
         <v>20000</v>
@@ -4576,7 +4576,7 @@
         <v>25000</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S30" s="51">
         <v>35000</v>
@@ -4590,7 +4590,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7">
         <v>970000</v>
@@ -4628,7 +4628,7 @@
         <v>5000</v>
       </c>
       <c r="N31" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O31" s="44">
         <v>20000</v>
@@ -4640,7 +4640,7 @@
         <v>25000</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S31" s="51">
         <v>35000</v>
@@ -4654,7 +4654,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="7">
         <v>997700</v>
@@ -4692,7 +4692,7 @@
         <v>5000</v>
       </c>
       <c r="N32" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O32" s="44">
         <v>20000</v>
@@ -4704,7 +4704,7 @@
         <v>25000</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S32" s="51">
         <v>35000</v>
@@ -4718,7 +4718,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" s="7">
         <v>922200</v>
@@ -4756,7 +4756,7 @@
         <v>5000</v>
       </c>
       <c r="N33" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O33" s="44">
         <v>15000</v>
@@ -4768,7 +4768,7 @@
         <v>20000</v>
       </c>
       <c r="R33" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S33" s="51">
         <v>35000</v>
@@ -4782,7 +4782,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="7">
         <v>999900</v>
@@ -4820,7 +4820,7 @@
         <v>5000</v>
       </c>
       <c r="N34" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O34" s="44">
         <v>15000</v>
@@ -4832,7 +4832,7 @@
         <v>20000</v>
       </c>
       <c r="R34" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S34" s="51">
         <v>35000</v>
@@ -4884,7 +4884,7 @@
         <v>15000</v>
       </c>
       <c r="N35" s="54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O35" s="44">
         <v>23000</v>
@@ -4896,7 +4896,7 @@
         <v>28000</v>
       </c>
       <c r="R35" s="45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S35" s="51">
         <v>35000</v>
@@ -4906,41 +4906,41 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="73">
         <v>985700</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="74">
         <v>0</v>
       </c>
-      <c r="E36" s="91">
+      <c r="E36" s="74">
         <v>52969</v>
       </c>
-      <c r="F36" s="91">
+      <c r="F36" s="74">
         <v>52420</v>
       </c>
-      <c r="G36" s="91">
+      <c r="G36" s="74">
         <v>1519</v>
       </c>
-      <c r="H36" s="91">
+      <c r="H36" s="74">
         <v>24643</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="74">
         <v>3500</v>
       </c>
-      <c r="J36" s="91">
+      <c r="J36" s="74">
         <v>12000</v>
       </c>
-      <c r="K36" s="91">
+      <c r="K36" s="74">
         <f t="shared" si="0"/>
         <v>1132751</v>
       </c>
-      <c r="L36" s="92">
+      <c r="L36" s="75">
         <f t="shared" si="1"/>
         <v>1108108</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>15000</v>
       </c>
       <c r="N36" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O36" s="46">
         <v>23000</v>
@@ -4960,7 +4960,7 @@
         <v>28000</v>
       </c>
       <c r="R36" s="48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S36" s="52">
         <v>35000</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5151,27 +5151,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5220,12 +5220,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5452,15 +5449,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5485,10 +5486,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>